--- a/data_fat_olist.xlsx
+++ b/data_fat_olist.xlsx
@@ -425,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5934741.100000001</v>
+        <v>5934741.2</v>
       </c>
     </row>
     <row r="3">
@@ -443,16 +443,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>932</v>
+        <v>992</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>107010.7</v>
+        <v>112367.3</v>
       </c>
     </row>
     <row r="4">
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>152904</v>
+        <v>160663</v>
       </c>
       <c r="E4">
-        <v>530810</v>
+        <v>553896</v>
       </c>
       <c r="F4">
-        <v>9281</v>
+        <v>10061</v>
       </c>
       <c r="G4">
-        <v>85792038.10000004</v>
+        <v>90765793.40000004</v>
       </c>
     </row>
     <row r="5">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>3579</v>
+        <v>12042</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>558478.5</v>
+        <v>1513853.7</v>
       </c>
     </row>
     <row r="8">
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="D8">
-        <v>167219</v>
+        <v>173462</v>
       </c>
       <c r="E8">
-        <v>629184</v>
+        <v>649041</v>
       </c>
       <c r="F8">
-        <v>9591</v>
+        <v>10257</v>
       </c>
       <c r="G8">
-        <v>108575965</v>
+        <v>113503466.1</v>
       </c>
     </row>
     <row r="9">
@@ -608,13 +608,13 @@
         <v>450</v>
       </c>
       <c r="E9">
-        <v>13143</v>
+        <v>13142</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5190745.100000001</v>
+        <v>5190315</v>
       </c>
     </row>
     <row r="10">
@@ -659,16 +659,16 @@
         </is>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E11">
-        <v>3893</v>
+        <v>4265</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>641856.8000000001</v>
+        <v>667951.1</v>
       </c>
     </row>
     <row r="12">
@@ -686,16 +686,16 @@
         </is>
       </c>
       <c r="D12">
-        <v>168880</v>
+        <v>173096</v>
       </c>
       <c r="E12">
-        <v>609236</v>
+        <v>621189</v>
       </c>
       <c r="F12">
-        <v>9929</v>
+        <v>10464</v>
       </c>
       <c r="G12">
-        <v>102151252.2000001</v>
+        <v>105820988.4000001</v>
       </c>
     </row>
     <row r="13">
@@ -716,13 +716,13 @@
         <v>457</v>
       </c>
       <c r="E13">
-        <v>11060</v>
+        <v>11059</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2447957.5</v>
+        <v>2448757.5</v>
       </c>
     </row>
     <row r="14">
@@ -743,13 +743,13 @@
         <v>148</v>
       </c>
       <c r="E14">
-        <v>6831</v>
+        <v>6829</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3272664.9</v>
+        <v>3268665</v>
       </c>
     </row>
     <row r="15">
@@ -767,16 +767,16 @@
         </is>
       </c>
       <c r="D15">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="E15">
-        <v>3568</v>
+        <v>3723</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15">
-        <v>708207.4</v>
+        <v>719587.3000000001</v>
       </c>
     </row>
     <row r="16">
@@ -794,16 +794,16 @@
         </is>
       </c>
       <c r="D16">
-        <v>178630</v>
+        <v>181074</v>
       </c>
       <c r="E16">
-        <v>638882</v>
+        <v>648060</v>
       </c>
       <c r="F16">
-        <v>10482</v>
+        <v>10830</v>
       </c>
       <c r="G16">
-        <v>101809949.2000001</v>
+        <v>104986928.6000001</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>402</v>
       </c>
       <c r="E17">
-        <v>9890</v>
+        <v>9888</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1869546.4</v>
+        <v>1870124.7</v>
       </c>
     </row>
     <row r="18">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="D18">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18">
-        <v>7048</v>
+        <v>7047</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4351304.600000001</v>
+        <v>4345139.3</v>
       </c>
     </row>
     <row r="19">
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="D19">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="E19">
-        <v>2962</v>
+        <v>3008</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19">
-        <v>601044.1</v>
+        <v>602548.7</v>
       </c>
     </row>
     <row r="20">
@@ -902,16 +902,16 @@
         </is>
       </c>
       <c r="D20">
-        <v>147403</v>
+        <v>148222</v>
       </c>
       <c r="E20">
-        <v>497669</v>
+        <v>500529</v>
       </c>
       <c r="F20">
-        <v>10455</v>
+        <v>10628</v>
       </c>
       <c r="G20">
-        <v>84236118.70000003</v>
+        <v>86358678.20000003</v>
       </c>
     </row>
     <row r="21">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="D21">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="E21">
-        <v>6093</v>
+        <v>8203</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1345725.5</v>
+        <v>1802691.1</v>
       </c>
     </row>
     <row r="22">
@@ -956,16 +956,16 @@
         </is>
       </c>
       <c r="D22">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E22">
-        <v>3562</v>
+        <v>4950</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1473158.2</v>
+        <v>1788475.4</v>
       </c>
     </row>
     <row r="23">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="D23">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="E23">
-        <v>3783</v>
+        <v>4881</v>
       </c>
       <c r="F23">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G23">
-        <v>654476.7</v>
+        <v>832680.4</v>
       </c>
     </row>
     <row r="24">
@@ -1010,16 +1010,16 @@
         </is>
       </c>
       <c r="D24">
-        <v>112838</v>
+        <v>135002</v>
       </c>
       <c r="E24">
-        <v>346841</v>
+        <v>446801</v>
       </c>
       <c r="F24">
-        <v>10321</v>
+        <v>10871</v>
       </c>
       <c r="G24">
-        <v>61589389.90000001</v>
+        <v>81076413.30000003</v>
       </c>
     </row>
   </sheetData>
